--- a/medicine/Enfance/Gommette/Gommette.xlsx
+++ b/medicine/Enfance/Gommette/Gommette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une gommette est une forme de couleur unie faite de papier gommé ou autocollant, destinée à être collée sur un autre support. Des gommettes de différentes formes, couleurs et tailles sont fabriquées. 
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les gommettes sont souvent utilisées par les enfants, comme éléments décoratifs, compléments à des dessins, en loisirs créatifs, ou dans la réalisation de collages. En école maternelle, elles font partie d’activités pédagogiques variées, notamment pour le développement de la motricité fine[1],[2],[3].
-Les gommettes peuvent également être utilisées comme matériel de repérage, classification, organisation, localisation cartographique, ou pour réaliser un vote cumulatif (« dot-voting (en) », ou « dotmocracy »)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gommettes sont souvent utilisées par les enfants, comme éléments décoratifs, compléments à des dessins, en loisirs créatifs, ou dans la réalisation de collages. En école maternelle, elles font partie d’activités pédagogiques variées, notamment pour le développement de la motricité fine.
+Les gommettes peuvent également être utilisées comme matériel de repérage, classification, organisation, localisation cartographique, ou pour réaliser un vote cumulatif (« dot-voting (en) », ou « dotmocracy »).
 			Utilisation de gommettes dans la réalisation d’un dessin.
 			Travail de motricité fine consistant à coller les gommettes aux endroits prévus sur le dessin.
 			Dessins d’animaux complétés de gommettes géométriques.
